--- a/www/ig/fhir/annuaire/CodeSystem-as-cs-organization-types.xlsx
+++ b/www/ig/fhir/annuaire/CodeSystem-as-cs-organization-types.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:41:29+00:00</t>
+    <t>2024-04-10T12:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr, monserviceclient.annuaire@esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/www/ig/fhir/annuaire/CodeSystem-as-cs-organization-types.xlsx
+++ b/www/ig/fhir/annuaire/CodeSystem-as-cs-organization-types.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/annuaire/CodeSystem-as-cs-organization-types.xlsx
+++ b/www/ig/fhir/annuaire/CodeSystem-as-cs-organization-types.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>Property</t>
   </si>
@@ -30,13 +30,13 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>AsCsorganizationTypes</t>
+    <t>AsCsOrganizationTypes</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T11:46:45+00:00</t>
+    <t>2025-04-14T13:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>4</t>
+    <t>6</t>
   </si>
   <si>
     <t>Level</t>
@@ -135,6 +135,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>organizationType</t>
+  </si>
+  <si>
+    <t>Type d'organisation</t>
+  </si>
+  <si>
     <t>activiteINSEE</t>
   </si>
   <si>
@@ -160,6 +166,12 @@
   </si>
   <si>
     <t>Type d'établissement</t>
+  </si>
+  <si>
+    <t>secteurActiviteRASS</t>
+  </si>
+  <si>
+    <t>Secteur d'activité RASS</t>
   </si>
 </sst>
 </file>
@@ -468,7 +480,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,7 +539,7 @@
         <v>45</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +547,41 @@
         <v>39</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>48</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
